--- a/hw1111.xlsx
+++ b/hw1111.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Documents/PL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434A0C12-2722-0444-B7E5-F9D36AB6A67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D666C3F6-EA4E-9A49-89CA-57A4686E4C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9220" yWindow="1960" windowWidth="27860" windowHeight="15840" xr2:uid="{D9F09276-BF70-AA41-95E4-0C63302EBF91}"/>
+    <workbookView xWindow="940" yWindow="1000" windowWidth="27860" windowHeight="15840" xr2:uid="{D9F09276-BF70-AA41-95E4-0C63302EBF91}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="63">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,42 @@
   </si>
   <si>
     <t>吳文西</t>
+  </si>
+  <si>
+    <t>年紀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ａ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ＡＢ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ｏ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ｂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -586,15 +622,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39233AEB-3437-DA47-8A22-988EAE65C063}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,8 +643,23 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16">
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -621,8 +672,26 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="16">
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <f ca="1">RANDBETWEEN(22000,180000)</f>
+        <v>113086</v>
+      </c>
+      <c r="G2">
+        <f ca="1">RANDBETWEEN(1,12)</f>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f ca="1">RANDBETWEEN(1,28)</f>
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="16">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -635,8 +704,27 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="16">
+      <c r="E3">
+        <f t="shared" ref="E3:E36" ca="1" si="0">RANDBETWEEN(20,80)</f>
+        <v>57</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F36" ca="1" si="1">RANDBETWEEN(22000,180000)</f>
+        <v>45045</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G36" ca="1" si="2">RANDBETWEEN(1,12)</f>
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H36" ca="1" si="3">RANDBETWEEN(1,28)</f>
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -649,8 +737,27 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="16">
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="1"/>
+        <v>151745</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -663,8 +770,27 @@
       <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="16">
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="1"/>
+        <v>111087</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="16">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -677,8 +803,27 @@
       <c r="D6" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="16">
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="1"/>
+        <v>174203</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
@@ -691,8 +836,27 @@
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="16">
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="1"/>
+        <v>124387</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16">
       <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
@@ -705,8 +869,27 @@
       <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="16">
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="1"/>
+        <v>78049</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
@@ -719,8 +902,27 @@
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="16">
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="1"/>
+        <v>168460</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -733,8 +935,27 @@
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="16">
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="1"/>
+        <v>169728</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -747,8 +968,27 @@
       <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="16">
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="1"/>
+        <v>148443</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -761,8 +1001,27 @@
       <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="16">
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="1"/>
+        <v>76647</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -775,8 +1034,27 @@
       <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="16">
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="1"/>
+        <v>121579</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -789,8 +1067,27 @@
       <c r="D14" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="16">
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="1"/>
+        <v>147150</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -803,8 +1100,27 @@
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="16">
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="1"/>
+        <v>173512</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -817,8 +1133,27 @@
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="16">
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="1"/>
+        <v>157515</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -831,8 +1166,27 @@
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="16">
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="1"/>
+        <v>79165</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16">
       <c r="A18" s="2" t="s">
         <v>33</v>
       </c>
@@ -845,8 +1199,27 @@
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16">
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="1"/>
+        <v>149443</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16">
       <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
@@ -859,8 +1232,27 @@
       <c r="D19" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16">
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="1"/>
+        <v>127844</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="I19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="16">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -873,8 +1265,27 @@
       <c r="D20" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="16">
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="1"/>
+        <v>88079</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16">
       <c r="A21" s="2" t="s">
         <v>36</v>
       </c>
@@ -887,8 +1298,27 @@
       <c r="D21" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="16">
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="1"/>
+        <v>73543</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16">
       <c r="A22" s="2" t="s">
         <v>37</v>
       </c>
@@ -901,8 +1331,27 @@
       <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="16">
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="1"/>
+        <v>76682</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16">
       <c r="A23" s="2" t="s">
         <v>38</v>
       </c>
@@ -915,8 +1364,27 @@
       <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="16">
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="1"/>
+        <v>23439</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16">
       <c r="A24" s="2" t="s">
         <v>39</v>
       </c>
@@ -929,8 +1397,27 @@
       <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="16">
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="1"/>
+        <v>170385</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="16">
       <c r="A25" s="2" t="s">
         <v>40</v>
       </c>
@@ -943,8 +1430,27 @@
       <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="16">
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="1"/>
+        <v>159212</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -957,8 +1463,27 @@
       <c r="D26" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="16">
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="1"/>
+        <v>59869</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -971,8 +1496,27 @@
       <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="16">
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="1"/>
+        <v>72728</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="16">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -985,8 +1529,27 @@
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="16">
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="1"/>
+        <v>163841</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16">
       <c r="A29" s="2" t="s">
         <v>44</v>
       </c>
@@ -999,8 +1562,27 @@
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="16">
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="1"/>
+        <v>76990</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="I29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16">
       <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
@@ -1013,8 +1595,27 @@
       <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="16">
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="1"/>
+        <v>66619</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="16">
       <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
@@ -1027,8 +1628,27 @@
       <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="16">
+      <c r="E31">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="1"/>
+        <v>112310</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="16">
       <c r="A32" s="2" t="s">
         <v>48</v>
       </c>
@@ -1041,8 +1661,27 @@
       <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="16">
+      <c r="E32">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="1"/>
+        <v>81281</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="16">
       <c r="A33" s="2" t="s">
         <v>50</v>
       </c>
@@ -1055,8 +1694,27 @@
       <c r="D33" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="16">
+      <c r="E33">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="1"/>
+        <v>155654</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="16">
       <c r="A34" s="2" t="s">
         <v>51</v>
       </c>
@@ -1069,8 +1727,27 @@
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="16">
+      <c r="E34">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="1"/>
+        <v>171193</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="16">
       <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
@@ -1083,8 +1760,27 @@
       <c r="D35" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="16">
+      <c r="E35">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="1"/>
+        <v>50748</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="16">
       <c r="A36" s="2" t="s">
         <v>53</v>
       </c>
@@ -1096,6 +1792,25 @@
       </c>
       <c r="D36" s="2" t="s">
         <v>7</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="1"/>
+        <v>76813</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
